--- a/A1_srb_slo_All_Reports.xlsx
+++ b/A1_srb_slo_All_Reports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npetkov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npetkov\Documents\GitHub\A1_srb_slo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{81623249-116C-461A-BBC7-C28B61E289C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A511EC61-C9AB-43D9-A5E6-8EC204BC818C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reports" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
   <si>
     <t>Report name</t>
   </si>
@@ -151,16 +151,39 @@
   </si>
   <si>
     <t>15b</t>
+  </si>
+  <si>
+    <t>Adress</t>
+  </si>
+  <si>
+    <t>Day/scheduling</t>
+  </si>
+  <si>
+    <t>Hour/Scheduling</t>
+  </si>
+  <si>
+    <t>ICT.GRC@vipmobile.rs</t>
+  </si>
+  <si>
+    <t>Everyday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,13 +206,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -206,13 +233,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D28" totalsRowShown="0">
-  <autoFilter ref="A1:D28"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="Report name"/>
-    <tableColumn id="3" name="Region"/>
-    <tableColumn id="4" name="Type"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:G28" totalsRowShown="0">
+  <autoFilter ref="A1:G28" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Report name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Region"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type"/>
+    <tableColumn id="5" xr3:uid="{752748E9-28BB-4241-96CE-8D204327E974}" name="Adress"/>
+    <tableColumn id="6" xr3:uid="{E19AC273-1C98-491A-999B-EACA96FBF948}" name="Day/scheduling"/>
+    <tableColumn id="7" xr3:uid="{9B73D562-8E76-4272-AFA7-97EC27A3B608}" name="Hour/Scheduling"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -514,11 +544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,9 +557,12 @@
     <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -542,8 +575,17 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -557,7 +599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -571,7 +613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -585,7 +627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -599,7 +641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -613,7 +655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -627,7 +669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -641,7 +683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -655,7 +697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -669,7 +711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -683,7 +725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -697,7 +739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -711,7 +753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -725,7 +767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -739,7 +781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -753,7 +795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -767,7 +809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -781,7 +823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -795,7 +837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -809,7 +851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -823,7 +865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -837,7 +879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -851,7 +893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -865,7 +907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -879,7 +921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -893,7 +935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -906,8 +948,17 @@
       <c r="D27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -922,9 +973,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E27" r:id="rId1" xr:uid="{B7AC8E59-534C-4D00-A8D4-232BF895252F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/A1_srb_slo_All_Reports.xlsx
+++ b/A1_srb_slo_All_Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npetkov\Documents\GitHub\A1_srb_slo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A511EC61-C9AB-43D9-A5E6-8EC204BC818C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EE2A02-BE59-4C87-A81B-94BE3763331C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t>Report name</t>
   </si>
@@ -166,13 +166,28 @@
   </si>
   <si>
     <t>Everyday</t>
+  </si>
+  <si>
+    <t>marko.zver@a1.si</t>
+  </si>
+  <si>
+    <t>1st day of the month</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +203,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -206,16 +245,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="21" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -233,9 +279,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:G28" totalsRowShown="0">
-  <autoFilter ref="A1:G28" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:H28" totalsRowShown="0">
+  <autoFilter ref="A1:H28" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Report name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Region"/>
@@ -243,6 +289,7 @@
     <tableColumn id="5" xr3:uid="{752748E9-28BB-4241-96CE-8D204327E974}" name="Adress"/>
     <tableColumn id="6" xr3:uid="{E19AC273-1C98-491A-999B-EACA96FBF948}" name="Day/scheduling"/>
     <tableColumn id="7" xr3:uid="{9B73D562-8E76-4272-AFA7-97EC27A3B608}" name="Hour/Scheduling"/>
+    <tableColumn id="8" xr3:uid="{BF301955-EB88-45BE-BCC6-DA695E95BA00}" name="Scheduled"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -545,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,11 +605,11 @@
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -584,8 +631,11 @@
       <c r="G1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -599,21 +649,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -627,7 +689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -641,7 +703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -655,7 +717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -669,7 +731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -683,7 +745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -697,7 +759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -711,7 +773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -725,7 +787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -739,7 +801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -753,7 +815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -767,7 +829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -781,7 +843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -795,7 +857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -809,7 +871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -823,7 +885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -837,7 +899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -851,7 +913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -865,7 +927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -876,10 +938,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -893,7 +955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -907,7 +969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -921,7 +983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -935,30 +997,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G27" s="2">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -975,10 +1040,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E27" r:id="rId1" xr:uid="{B7AC8E59-534C-4D00-A8D4-232BF895252F}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{FA9FAFCC-3AB3-4EBD-A52D-D4F6465D40FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/A1_srb_slo_All_Reports.xlsx
+++ b/A1_srb_slo_All_Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npetkov\Documents\GitHub\A1_srb_slo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EE2A02-BE59-4C87-A81B-94BE3763331C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84AAB38-0548-4A9F-BA7C-7B054B614799}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>Report name</t>
   </si>
@@ -138,9 +138,6 @@
     <t>CRQ</t>
   </si>
   <si>
-    <t>Vladimir Ljustina</t>
-  </si>
-  <si>
     <t>14a</t>
   </si>
   <si>
@@ -181,6 +178,15 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>V.Ljustina@vipmobile.rs</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Vladimir Ljustina INC</t>
   </si>
 </sst>
 </file>
@@ -251,13 +257,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="21" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -595,7 +607,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -663,16 +675,16 @@
         <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="G3" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -831,7 +843,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -845,7 +857,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -859,7 +871,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -873,7 +885,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1011,40 +1023,53 @@
         <v>34</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="G27" s="2">
         <v>0.41666666666666669</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E27" r:id="rId1" xr:uid="{B7AC8E59-534C-4D00-A8D4-232BF895252F}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{FA9FAFCC-3AB3-4EBD-A52D-D4F6465D40FC}"/>
+    <hyperlink ref="E28" r:id="rId3" xr:uid="{A36907B6-6A41-4196-9992-DC3C0625654B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/A1_srb_slo_All_Reports.xlsx
+++ b/A1_srb_slo_All_Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npetkov\Documents\GitHub\A1_srb_slo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84AAB38-0548-4A9F-BA7C-7B054B614799}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632FC058-9BD3-4C63-93F9-B7096D0AED5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>Report name</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Vladimir Ljustina INC</t>
+  </si>
+  <si>
+    <t>A1.IT.TL@a1.si</t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
 </sst>
 </file>
@@ -607,7 +613,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,17 +654,29 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">

--- a/A1_srb_slo_All_Reports.xlsx
+++ b/A1_srb_slo_All_Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npetkov\Documents\GitHub\A1_srb_slo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632FC058-9BD3-4C63-93F9-B7096D0AED5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7C48F-611C-4DF5-8EA1-6D7640D05174}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="62">
   <si>
     <t>Report name</t>
   </si>
@@ -193,13 +193,37 @@
   </si>
   <si>
     <t>Friday</t>
+  </si>
+  <si>
+    <t>webinfo.notification@vipmobile.rs</t>
+  </si>
+  <si>
+    <t>Every 15 minutes</t>
+  </si>
+  <si>
+    <t>primoz.likar@a1.si</t>
+  </si>
+  <si>
+    <t>S.Vranjkovic@vipmobile.rs</t>
+  </si>
+  <si>
+    <t>CS.Technical@vipmobile.rs</t>
+  </si>
+  <si>
+    <t>1st day of month</t>
+  </si>
+  <si>
+    <t>Validated</t>
+  </si>
+  <si>
+    <t>Marko.Oslaj@A1.si</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +253,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +278,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -256,31 +292,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="21" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -297,9 +366,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:H28" totalsRowShown="0">
-  <autoFilter ref="A1:H28" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:I28" totalsRowShown="0">
+  <autoFilter ref="A1:I28" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Report name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Region"/>
@@ -308,6 +377,7 @@
     <tableColumn id="6" xr3:uid="{E19AC273-1C98-491A-999B-EACA96FBF948}" name="Day/scheduling"/>
     <tableColumn id="7" xr3:uid="{9B73D562-8E76-4272-AFA7-97EC27A3B608}" name="Hour/Scheduling"/>
     <tableColumn id="8" xr3:uid="{BF301955-EB88-45BE-BCC6-DA695E95BA00}" name="Scheduled"/>
+    <tableColumn id="9" xr3:uid="{0AED5AFB-C9CD-44C5-B579-14171D5F35B5}" name="Validated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -610,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,12 +692,14 @@
     <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -652,8 +724,11 @@
       <c r="H1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -672,14 +747,17 @@
       <c r="F2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>0.1875</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -692,34 +770,52 @@
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.54166666666666663</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -733,7 +829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -747,21 +843,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -775,49 +876,78 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -831,7 +961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -845,7 +975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -859,7 +989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -873,7 +1003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -887,7 +1017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -901,7 +1031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -915,7 +1045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -929,7 +1059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -943,7 +1073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -957,113 +1087,187 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="E22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="E23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="E24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="E25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="E26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="H27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -1075,7 +1279,10 @@
       <c r="G28" s="7">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1084,10 +1291,15 @@
     <hyperlink ref="E27" r:id="rId1" xr:uid="{B7AC8E59-534C-4D00-A8D4-232BF895252F}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{FA9FAFCC-3AB3-4EBD-A52D-D4F6465D40FC}"/>
     <hyperlink ref="E28" r:id="rId3" xr:uid="{A36907B6-6A41-4196-9992-DC3C0625654B}"/>
+    <hyperlink ref="E26" r:id="rId4" xr:uid="{127A8B65-05EC-4266-9A0D-4CFF0D05AC59}"/>
+    <hyperlink ref="E24" r:id="rId5" xr:uid="{3EF1F75D-80F1-4A34-9AED-BE158F277CD9}"/>
+    <hyperlink ref="E22" r:id="rId6" xr:uid="{ABD71387-A1B6-4B2B-95AC-0831B3375E5C}"/>
+    <hyperlink ref="E23" r:id="rId7" xr:uid="{3E678C8C-C650-4195-B3F2-BB7AC31029A5}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{7E88282A-351E-4009-88AB-D9E560FC408A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/A1_srb_slo_All_Reports.xlsx
+++ b/A1_srb_slo_All_Reports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npetkov\Documents\GitHub\A1_srb_slo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolaypetkov/Documents/GitHub/A1_srb_slo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7C48F-611C-4DF5-8EA1-6D7640D05174}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5F6FB4-DED5-8F47-88ED-92625B4DF8A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reports" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
   <si>
     <t>Report name</t>
   </si>
@@ -217,13 +217,19 @@
   </si>
   <si>
     <t>Marko.Oslaj@A1.si</t>
+  </si>
+  <si>
+    <t>D:/BMCData/BMCXfer/FromOnDemand/simobil</t>
+  </si>
+  <si>
+    <t>Daily</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,15 +259,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,11 +275,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -306,19 +300,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -337,19 +329,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -682,24 +678,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -728,7 +724,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -757,65 +753,65 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="10">
         <v>0.14583333333333334</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -829,7 +825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -843,26 +839,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -876,78 +882,94 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="E9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="E10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>0.375</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -961,7 +983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -975,7 +997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -989,7 +1011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1003,7 +1025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1017,7 +1039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1031,7 +1053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1045,7 +1067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1059,7 +1081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1073,7 +1095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1087,202 +1109,202 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>0.375</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="I22" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>0.375</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="I23" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>0.375</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="I24" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="G25" s="4"/>
+      <c r="H25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="G26" s="5"/>
+      <c r="H26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>48</v>
       </c>
     </row>

--- a/A1_srb_slo_All_Reports.xlsx
+++ b/A1_srb_slo_All_Reports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolaypetkov/Documents/GitHub/A1_srb_slo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5F6FB4-DED5-8F47-88ED-92625B4DF8A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A8506E-4B47-B946-A821-73C821F22813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1500" windowWidth="25340" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reports" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="66">
   <si>
     <t>Report name</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>Daily</t>
+  </si>
+  <si>
+    <t>1nd day of month</t>
+  </si>
+  <si>
+    <t>V.Radulovic@vipmobile.rs</t>
   </si>
 </sst>
 </file>
@@ -306,7 +312,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
@@ -340,6 +346,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -678,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:F18"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -864,8 +879,8 @@
       <c r="H7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>47</v>
+      <c r="I7" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1068,45 +1083,90 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="14">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>18</v>
       </c>
+      <c r="E20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1243,8 +1303,8 @@
         <v>55</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="9" t="s">
-        <v>47</v>
+      <c r="H26" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>48</v>
@@ -1318,10 +1378,11 @@
     <hyperlink ref="E22" r:id="rId6" xr:uid="{ABD71387-A1B6-4B2B-95AC-0831B3375E5C}"/>
     <hyperlink ref="E23" r:id="rId7" xr:uid="{3E678C8C-C650-4195-B3F2-BB7AC31029A5}"/>
     <hyperlink ref="E11" r:id="rId8" xr:uid="{7E88282A-351E-4009-88AB-D9E560FC408A}"/>
+    <hyperlink ref="E21" r:id="rId9" xr:uid="{BCAB7901-EBAA-0946-92B1-C1ECBB90FE3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/A1_srb_slo_All_Reports.xlsx
+++ b/A1_srb_slo_All_Reports.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolaypetkov/Documents/GitHub/A1_srb_slo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A8506E-4B47-B946-A821-73C821F22813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F74A5A6-52D3-0A45-9F96-EC7E961F0F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1500" windowWidth="25340" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1620" windowWidth="27740" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reports" sheetId="3" r:id="rId1"/>
+    <sheet name="Toni" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
   <si>
     <t>Report name</t>
   </si>
@@ -229,13 +230,48 @@
   </si>
   <si>
     <t>V.Radulovic@vipmobile.rs</t>
+  </si>
+  <si>
+    <t>hpd_associations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incident number </t>
+  </si>
+  <si>
+    <t>User name (mail address)</t>
+  </si>
+  <si>
+    <t>Assignment group</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Affected service (to filter out)</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Activity log</t>
+  </si>
+  <si>
+    <t>D.Komazec@vipmobile.rs</t>
+  </si>
+  <si>
+    <t>matej.priterznik@a1.si
+primoz.likar@a1.si
+miha.ceric@a1.si</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +301,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Apple Color Emoji"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF444444"/>
+      <name val="Raleway"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,26 +335,25 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -312,7 +363,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
@@ -338,9 +389,6 @@
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -355,6 +403,15 @@
     </xf>
     <xf numFmtId="18" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -691,26 +748,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -739,7 +797,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -768,7 +826,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -781,7 +839,7 @@
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -797,7 +855,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -819,14 +877,14 @@
       <c r="G4" s="10">
         <v>0.14583333333333334</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>47</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -839,8 +897,17 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -853,8 +920,17 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.15277777777777776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -883,7 +959,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -896,8 +972,17 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.22916666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -926,7 +1011,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -951,11 +1036,11 @@
       <c r="H10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -980,11 +1065,11 @@
       <c r="H11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -997,92 +1082,197 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="19">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="E13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="E15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="E16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="E17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -1104,43 +1294,43 @@
       <c r="G19" s="10">
         <v>0.375</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="H19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13">
         <v>17</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -1169,7 +1359,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1198,7 +1388,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -1227,7 +1417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1256,7 +1446,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -1276,14 +1466,14 @@
         <v>55</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="9" t="s">
-        <v>47</v>
+      <c r="H25" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -1310,7 +1500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -1339,7 +1529,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -1385,4 +1575,75 @@
     <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BB0E9A-AED9-5844-BB61-CFE5EC656C2D}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28">
+      <c r="A12" s="17"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19">
+      <c r="A16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="18">
+        <v>60807852947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/A1_srb_slo_All_Reports.xlsx
+++ b/A1_srb_slo_All_Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolaypetkov/Documents/GitHub/A1_srb_slo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F74A5A6-52D3-0A45-9F96-EC7E961F0F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5156A11-A28B-1547-AF31-1A8207D682F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="1620" windowWidth="27740" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="78">
   <si>
     <t>Report name</t>
   </si>
@@ -265,6 +265,9 @@
     <t>matej.priterznik@a1.si
 primoz.likar@a1.si
 miha.ceric@a1.si</t>
+  </si>
+  <si>
+    <t>BackUp</t>
   </si>
 </sst>
 </file>
@@ -434,9 +437,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:I28" totalsRowShown="0">
-  <autoFilter ref="A1:I28" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:J28" totalsRowShown="0">
+  <autoFilter ref="A1:J28" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Report name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Region"/>
@@ -446,6 +449,7 @@
     <tableColumn id="7" xr3:uid="{9B73D562-8E76-4272-AFA7-97EC27A3B608}" name="Hour/Scheduling"/>
     <tableColumn id="8" xr3:uid="{BF301955-EB88-45BE-BCC6-DA695E95BA00}" name="Scheduled"/>
     <tableColumn id="9" xr3:uid="{0AED5AFB-C9CD-44C5-B579-14171D5F35B5}" name="Validated"/>
+    <tableColumn id="10" xr3:uid="{B522AE05-8653-024D-B072-D569EDFE1E40}" name="BackUp"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -749,10 +753,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -768,7 +772,7 @@
     <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -796,8 +800,11 @@
       <c r="I1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -826,7 +833,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -855,7 +862,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -884,7 +891,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="G5" s="20">
         <v>0.1388888888888889</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -929,8 +939,11 @@
       <c r="G6" s="19">
         <v>0.15277777777777776</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -959,7 +972,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -981,8 +994,11 @@
       <c r="G8" s="19">
         <v>0.22916666666666666</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1011,7 +1027,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1040,7 +1056,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1069,7 +1085,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1098,7 +1114,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1127,7 +1143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1156,7 +1172,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1185,7 +1201,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -1442,8 +1458,8 @@
       <c r="H24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>47</v>
+      <c r="I24" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1469,8 +1485,8 @@
       <c r="H25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>47</v>
+      <c r="I25" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:9">

--- a/A1_srb_slo_All_Reports.xlsx
+++ b/A1_srb_slo_All_Reports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolaypetkov/Documents/GitHub/A1_srb_slo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5156A11-A28B-1547-AF31-1A8207D682F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118D492D-3163-0E40-8AE8-8F11F7BD0638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1620" windowWidth="27740" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="1840" windowWidth="24320" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reports" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="77">
   <si>
     <t>Report name</t>
   </si>
@@ -262,12 +262,7 @@
     <t>D.Komazec@vipmobile.rs</t>
   </si>
   <si>
-    <t>matej.priterznik@a1.si
-primoz.likar@a1.si
-miha.ceric@a1.si</t>
-  </si>
-  <si>
-    <t>BackUp</t>
+    <t>matej.priterznik@a1.si;primoz.likar@a1.si;miha.ceric@a1.si</t>
   </si>
 </sst>
 </file>
@@ -321,7 +316,7 @@
       <name val="Raleway"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,18 +331,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -366,11 +349,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -395,13 +377,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="18" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -410,12 +386,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -437,9 +407,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:J28" totalsRowShown="0">
-  <autoFilter ref="A1:J28" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:I28" totalsRowShown="0">
+  <autoFilter ref="A1:I28" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Report name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Region"/>
@@ -449,7 +419,6 @@
     <tableColumn id="7" xr3:uid="{9B73D562-8E76-4272-AFA7-97EC27A3B608}" name="Hour/Scheduling"/>
     <tableColumn id="8" xr3:uid="{BF301955-EB88-45BE-BCC6-DA695E95BA00}" name="Scheduled"/>
     <tableColumn id="9" xr3:uid="{0AED5AFB-C9CD-44C5-B579-14171D5F35B5}" name="Validated"/>
-    <tableColumn id="10" xr3:uid="{B522AE05-8653-024D-B072-D569EDFE1E40}" name="BackUp"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -753,10 +722,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -772,7 +741,7 @@
     <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -800,11 +769,8 @@
       <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -827,750 +793,759 @@
         <v>0.1875</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4">
+    <row r="3" spans="1:9">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4">
+      <c r="H3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>0.14583333333333334</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
+      <c r="H4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="9">
         <v>0.1388888888888889</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="9">
         <v>0.15277777777777776</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4">
+      <c r="H6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="9">
         <v>0.22916666666666666</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5">
+      <c r="H8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="9" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="10">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="E15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="11">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="B20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="5">
         <v>0.375</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="H21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="19">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="E22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="10">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="E25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="E26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="13">
-        <v>17</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="4">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="E28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5">
-        <v>21</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="5">
-        <v>23</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="5">
-        <v>24</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5">
-        <v>25</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="5" t="s">
+      <c r="H28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1614,48 +1589,48 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28">
-      <c r="A12" s="17"/>
+      <c r="A12" s="14"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>60807852947</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="13" t="s">
         <v>74</v>
       </c>
     </row>

--- a/A1_srb_slo_All_Reports.xlsx
+++ b/A1_srb_slo_All_Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolaypetkov/Documents/GitHub/A1_srb_slo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118D492D-3163-0E40-8AE8-8F11F7BD0638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5129D2C-C357-1B40-B8BF-21D5C0FC42F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="1840" windowWidth="24320" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,7 +725,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1172,8 +1172,8 @@
       <c r="H15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>47</v>
+      <c r="I15" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1201,8 +1201,8 @@
       <c r="H16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>47</v>
+      <c r="I16" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1230,8 +1230,8 @@
       <c r="H17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>47</v>
+      <c r="I17" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9">
